--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H2">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I2">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J2">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>245.9914433333333</v>
+        <v>0.060851</v>
       </c>
       <c r="N2">
-        <v>737.97433</v>
+        <v>0.182553</v>
       </c>
       <c r="O2">
-        <v>0.9998771869643011</v>
+        <v>0.6854931677111926</v>
       </c>
       <c r="P2">
-        <v>0.9998771869643011</v>
+        <v>0.6854931677111926</v>
       </c>
       <c r="Q2">
-        <v>50.57067492902333</v>
+        <v>0.01950406393833333</v>
       </c>
       <c r="R2">
-        <v>455.13607436121</v>
+        <v>0.175536575445</v>
       </c>
       <c r="S2">
-        <v>0.09193324285881929</v>
+        <v>0.09291480078005926</v>
       </c>
       <c r="T2">
-        <v>0.09193324285881929</v>
+        <v>0.09291480078005926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H3">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I3">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J3">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03021466666666667</v>
+        <v>0.02791866666666666</v>
       </c>
       <c r="N3">
-        <v>0.090644</v>
+        <v>0.083756</v>
       </c>
       <c r="O3">
-        <v>0.0001228130356989411</v>
+        <v>0.3145068322888073</v>
       </c>
       <c r="P3">
-        <v>0.0001228130356989411</v>
+        <v>0.3145068322888073</v>
       </c>
       <c r="Q3">
-        <v>0.006211500958666666</v>
+        <v>0.008948537571111109</v>
       </c>
       <c r="R3">
-        <v>0.055903508628</v>
+        <v>0.08053683814</v>
       </c>
       <c r="S3">
-        <v>1.129198744039622E-05</v>
+        <v>0.0426296585327803</v>
       </c>
       <c r="T3">
-        <v>1.129198744039622E-05</v>
+        <v>0.0426296585327803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>3.287105</v>
       </c>
       <c r="I4">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J4">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>245.9914433333333</v>
+        <v>0.060851</v>
       </c>
       <c r="N4">
-        <v>737.97433</v>
+        <v>0.182553</v>
       </c>
       <c r="O4">
-        <v>0.9998771869643011</v>
+        <v>0.6854931677111926</v>
       </c>
       <c r="P4">
-        <v>0.9998771869643011</v>
+        <v>0.6854931677111926</v>
       </c>
       <c r="Q4">
-        <v>269.5332344460722</v>
+        <v>0.06667454211833332</v>
       </c>
       <c r="R4">
-        <v>2425.79911001465</v>
+        <v>0.600070879065</v>
       </c>
       <c r="S4">
-        <v>0.4899887995489798</v>
+        <v>0.3176287679128678</v>
       </c>
       <c r="T4">
-        <v>0.4899887995489798</v>
+        <v>0.3176287679128678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.287105</v>
       </c>
       <c r="I5">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J5">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03021466666666667</v>
+        <v>0.02791866666666666</v>
       </c>
       <c r="N5">
-        <v>0.090644</v>
+        <v>0.083756</v>
       </c>
       <c r="O5">
-        <v>0.0001228130356989411</v>
+        <v>0.3145068322888073</v>
       </c>
       <c r="P5">
-        <v>0.0001228130356989411</v>
+        <v>0.3145068322888073</v>
       </c>
       <c r="Q5">
-        <v>0.03310626062444444</v>
+        <v>0.03059052959777777</v>
       </c>
       <c r="R5">
-        <v>0.29795634562</v>
+        <v>0.27531476638</v>
       </c>
       <c r="S5">
-        <v>6.018440336036855E-05</v>
+        <v>0.1457292681320501</v>
       </c>
       <c r="T5">
-        <v>6.018440336036855E-05</v>
+        <v>0.1457292681320501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H6">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I6">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J6">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>245.9914433333333</v>
+        <v>0.060851</v>
       </c>
       <c r="N6">
-        <v>737.97433</v>
+        <v>0.182553</v>
       </c>
       <c r="O6">
-        <v>0.9998771869643011</v>
+        <v>0.6854931677111926</v>
       </c>
       <c r="P6">
-        <v>0.9998771869643011</v>
+        <v>0.6854931677111926</v>
       </c>
       <c r="Q6">
-        <v>229.9089327539389</v>
+        <v>0.05771561165766666</v>
       </c>
       <c r="R6">
-        <v>2069.18039478545</v>
+        <v>0.5194405049190001</v>
       </c>
       <c r="S6">
-        <v>0.417955144556502</v>
+        <v>0.2749495990182657</v>
       </c>
       <c r="T6">
-        <v>0.4179551445565019</v>
+        <v>0.2749495990182656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H7">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I7">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J7">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03021466666666667</v>
+        <v>0.02791866666666666</v>
       </c>
       <c r="N7">
-        <v>0.090644</v>
+        <v>0.083756</v>
       </c>
       <c r="O7">
-        <v>0.0001228130356989411</v>
+        <v>0.3145068322888073</v>
       </c>
       <c r="P7">
-        <v>0.0001228130356989411</v>
+        <v>0.3145068322888073</v>
       </c>
       <c r="Q7">
-        <v>0.02823928211777778</v>
+        <v>0.02648013875422222</v>
       </c>
       <c r="R7">
-        <v>0.25415353906</v>
+        <v>0.238321248788</v>
       </c>
       <c r="S7">
-        <v>5.133664489817629E-05</v>
+        <v>0.1261479056239769</v>
       </c>
       <c r="T7">
-        <v>5.133664489817628E-05</v>
+        <v>0.1261479056239769</v>
       </c>
     </row>
   </sheetData>
